--- a/biology/Botanique/Centre_international_d'amélioration_du_maïs_et_du_blé/Centre_international_d'amélioration_du_maïs_et_du_blé.xlsx
+++ b/biology/Botanique/Centre_international_d'amélioration_du_maïs_et_du_blé/Centre_international_d'amélioration_du_maïs_et_du_blé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centre_international_d%27am%C3%A9lioration_du_ma%C3%AFs_et_du_bl%C3%A9</t>
+          <t>Centre_international_d'amélioration_du_maïs_et_du_blé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Centre international d'amélioration du maïs et du blé, ou CIMMYT (de l'espagnol Centro internacional de mejoramiento de maiz y trigo), est une organisation sans but lucratif dont la mission est de contribuer à l'amélioration des moyens de subsistances des populations du tiers monde par l'amélioration des semences de blé et de maïs, principales cultures vivrières du monde. 
 Cette organisation est issue d'un programme pilote menée au Mexique en 1943 sous le parrainage conjoint du gouvernement mexicain et de la Fondation Rockefeller. L'un de ses plus célèbres membres fut Norman Borlaug, considéré comme le père de la Révolution verte.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centre_international_d%27am%C3%A9lioration_du_ma%C3%AFs_et_du_bl%C3%A9</t>
+          <t>Centre_international_d'amélioration_du_maïs_et_du_blé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Conservation de semences anciennes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le CIMMYT joue également un rôle de conservation des semences anciennes. Plus de 175 000 variétés de blé et de maïs sont conservées au titre du maintien de la biodiversité pour un usage éventuel dans de futures nouvelles variétés.
 </t>
